--- a/data/trans_orig/CONS_DOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DOL-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en País Vasco</t>
+          <t>Consumo de medicamentos para el dolor en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Andalucia</t>
+          <t>Consumo de medicamentos para el dolor en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6520,7 +6520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en C.Valenciana</t>
+          <t>Consumo de medicamentos para el dolor en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Barcelona</t>
+          <t>Consumo de medicamentos para el dolor en Barcelona (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_DOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DOL-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2294</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3982</t>
+          <t>5325</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>4776</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2976</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6772</t>
+          <t>6992</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>6779</t>
+          <t>7793</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>4978</t>
+          <t>5487</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>9421</t>
+          <t>10633</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60522</t>
+          <t>73864</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58834</t>
+          <t>71556</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61553</t>
+          <t>75181</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58008</t>
+          <t>61466</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55721</t>
+          <t>59250</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59517</t>
+          <t>63010</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>89,44%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>118530</t>
+          <t>135330</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>115888</t>
+          <t>132490</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>120331</t>
+          <t>137636</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>96,17%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2489</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>965</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3716</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6201</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8580</t>
+          <t>8058</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>8223</t>
+          <t>8320</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5957</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>11274</t>
+          <t>11266</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67143</t>
+          <t>72494</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65449</t>
+          <t>70662</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68200</t>
+          <t>73615</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>56282</t>
+          <t>62217</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>53903</t>
+          <t>59990</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>58233</t>
+          <t>63912</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>86,27%</t>
+          <t>88,16%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>123424</t>
+          <t>134711</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>120373</t>
+          <t>131765</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>125674</t>
+          <t>137074</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>95,84%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8585</t>
+          <t>9097</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6546</t>
+          <t>6804</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11602</t>
+          <t>12107</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12600</t>
+          <t>13848</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9778</t>
+          <t>10773</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15645</t>
+          <t>17096</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>21185</t>
+          <t>22945</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>17630</t>
+          <t>19289</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>25705</t>
+          <t>27618</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>12,86%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86110</t>
+          <t>94863</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83093</t>
+          <t>91853</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88149</t>
+          <t>97156</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84905</t>
+          <t>96867</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81860</t>
+          <t>93619</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>87727</t>
+          <t>99942</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>87,49%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>84,56%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>171015</t>
+          <t>191730</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>166495</t>
+          <t>187057</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>174570</t>
+          <t>195386</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>88,98%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>87,14%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>91,01%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15963</t>
+          <t>18078</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12967</t>
+          <t>14847</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20075</t>
+          <t>22155</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25358</t>
+          <t>25374</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21894</t>
+          <t>21676</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30484</t>
+          <t>30043</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>41321</t>
+          <t>43452</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>36795</t>
+          <t>38447</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>47096</t>
+          <t>48892</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>16,44%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>123451</t>
+          <t>126700</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>119339</t>
+          <t>122623</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>126447</t>
+          <t>129931</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>88,55%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>112617</t>
+          <t>127170</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>107491</t>
+          <t>122501</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>116081</t>
+          <t>130868</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>77,91%</t>
+          <t>80,31%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>84,13%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>236069</t>
+          <t>253869</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>230294</t>
+          <t>248429</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>240595</t>
+          <t>258874</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>85,1%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>83,02%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>87,07%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17694</t>
+          <t>15673</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13980</t>
+          <t>12795</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21684</t>
+          <t>19623</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24773</t>
+          <t>26239</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>21077</t>
+          <t>22482</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>29032</t>
+          <t>30557</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>42467</t>
+          <t>41911</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>37069</t>
+          <t>37114</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>48492</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>16,83%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>109160</t>
+          <t>113909</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>105170</t>
+          <t>109959</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>112874</t>
+          <t>116787</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,91%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>88,98%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>122568</t>
+          <t>125676</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>118309</t>
+          <t>121358</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>126264</t>
+          <t>129433</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>82,73%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>80,3%</t>
+          <t>79,89%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>85,7%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>231727</t>
+          <t>239587</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>225702</t>
+          <t>234128</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>237125</t>
+          <t>244384</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>84,51%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>83,17%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>86,48%</t>
+          <t>86,82%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11465</t>
+          <t>11491</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8959</t>
+          <t>8861</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14756</t>
+          <t>14400</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23749</t>
+          <t>25178</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19986</t>
+          <t>21788</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>27611</t>
+          <t>29383</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>35214</t>
+          <t>36669</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>30781</t>
+          <t>31980</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>40291</t>
+          <t>41646</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>18,91%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>96139</t>
+          <t>92975</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>92848</t>
+          <t>90066</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>98645</t>
+          <t>95605</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>89,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>86,22%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>91159</t>
+          <t>90602</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>87297</t>
+          <t>86397</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>94922</t>
+          <t>93992</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>79,33%</t>
+          <t>78,25%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>75,97%</t>
+          <t>74,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>82,61%</t>
+          <t>81,18%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>187298</t>
+          <t>183577</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>182221</t>
+          <t>178600</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>191731</t>
+          <t>188266</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>84,17%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>81,89%</t>
+          <t>81,09%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>85,48%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>20505</t>
+          <t>18883</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17407</t>
+          <t>15860</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24494</t>
+          <t>22386</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>43531</t>
+          <t>42613</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>38916</t>
+          <t>38243</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>48237</t>
+          <t>47225</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>64037</t>
+          <t>61496</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>58209</t>
+          <t>55958</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>70034</t>
+          <t>66975</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>30,23%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>75850</t>
+          <t>70340</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>71861</t>
+          <t>66837</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>78948</t>
+          <t>73363</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>78,72%</t>
+          <t>78,84%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>74,58%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>81,93%</t>
+          <t>82,22%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>90400</t>
+          <t>89699</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>85694</t>
+          <t>85087</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>95015</t>
+          <t>94069</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>67,5%</t>
+          <t>67,79%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>63,98%</t>
+          <t>64,31%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>70,94%</t>
+          <t>71,1%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>166249</t>
+          <t>160039</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>160252</t>
+          <t>154560</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>172077</t>
+          <t>165577</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>72,19%</t>
+          <t>72,24%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>69,59%</t>
+          <t>69,77%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>74,72%</t>
+          <t>74,74%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3137,32 +3137,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>78528</t>
+          <t>78728</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>71302</t>
+          <t>71343</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>86290</t>
+          <t>86576</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3172,32 +3172,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>140698</t>
+          <t>143858</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>129766</t>
+          <t>134320</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>149506</t>
+          <t>152300</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3207,32 +3207,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>219226</t>
+          <t>222586</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>206575</t>
+          <t>211450</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>231295</t>
+          <t>235242</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>15,46%</t>
         </is>
       </c>
     </row>
@@ -3250,32 +3250,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>618375</t>
+          <t>645144</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>610613</t>
+          <t>637296</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>625601</t>
+          <t>652529</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>87,62%</t>
+          <t>88,04%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3285,32 +3285,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>615937</t>
+          <t>653698</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>607129</t>
+          <t>645256</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>626869</t>
+          <t>663236</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>81,4%</t>
+          <t>81,96%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>80,9%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>82,85%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3320,32 +3320,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1234312</t>
+          <t>1298843</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1222243</t>
+          <t>1286187</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1246963</t>
+          <t>1309979</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>84,92%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>84,54%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>86,1%</t>
         </is>
       </c>
     </row>
@@ -3363,17 +3363,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3398,17 +3398,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14103</t>
+          <t>14180</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51917</t>
+          <t>54470</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>27504</t>
+          <t>28496</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>59793</t>
+          <t>59961</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>49909</t>
+          <t>51164</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>99200</t>
+          <t>99958</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>23,77%</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>184319</t>
+          <t>181766</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>222133</t>
+          <t>222056</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,02%</t>
+          <t>76,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3876,12 +3876,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>124560</t>
+          <t>124392</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>156849</t>
+          <t>155857</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>67,57%</t>
+          <t>67,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>85,08%</t>
+          <t>84,54%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>321389</t>
+          <t>320631</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>370680</t>
+          <t>369425</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>76,23%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>87,84%</t>
         </is>
       </c>
     </row>
@@ -4071,12 +4071,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34770</t>
+          <t>34815</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69364</t>
+          <t>67745</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26696</t>
+          <t>23841</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>76148</t>
+          <t>76745</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>68073</t>
+          <t>65464</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>133382</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4156,12 +4156,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>24,53%</t>
         </is>
       </c>
     </row>
@@ -4184,12 +4184,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>160004</t>
+          <t>161623</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>194598</t>
+          <t>194553</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>69,76%</t>
+          <t>70,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,84%</t>
+          <t>84,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4219,12 +4219,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>238280</t>
+          <t>237683</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>287732</t>
+          <t>290587</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>410573</t>
+          <t>410414</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>475723</t>
+          <t>478332</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4269,12 +4269,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>75,5%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>87,96%</t>
         </is>
       </c>
     </row>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45739</t>
+          <t>45471</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>74603</t>
+          <t>76834</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95334</t>
+          <t>94648</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>122488</t>
+          <t>123545</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>38,3%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>148909</t>
+          <t>148995</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>190462</t>
+          <t>189529</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>29,92%</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>236166</t>
+          <t>233935</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>265030</t>
+          <t>265298</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,99%</t>
+          <t>75,28%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,28%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>200125</t>
+          <t>199068</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>227279</t>
+          <t>227965</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>62,03%</t>
+          <t>61,7%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>70,45%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4597,12 +4597,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>442919</t>
+          <t>443852</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>484472</t>
+          <t>484386</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>69,93%</t>
+          <t>70,08%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>76,49%</t>
+          <t>76,48%</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32285</t>
+          <t>35246</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>165545</t>
+          <t>164149</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>139193</t>
+          <t>139677</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>172467</t>
+          <t>174603</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>43,13%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>122358</t>
+          <t>123994</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>338328</t>
+          <t>334053</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>32,37%</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>461619</t>
+          <t>463015</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>594879</t>
+          <t>591918</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4885,12 +4885,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>232335</t>
+          <t>230199</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>265609</t>
+          <t>265125</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>57,39%</t>
+          <t>56,87%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>65,61%</t>
+          <t>65,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>693638</t>
+          <t>697913</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>909608</t>
+          <t>907972</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>67,22%</t>
+          <t>67,63%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>88,14%</t>
+          <t>87,98%</t>
         </is>
       </c>
     </row>
@@ -5100,12 +5100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>81950</t>
+          <t>83228</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>114024</t>
+          <t>116653</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>127165</t>
+          <t>128698</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>154069</t>
+          <t>156220</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5150,12 +5150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>40,36%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5170,12 +5170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>218208</t>
+          <t>220987</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>260600</t>
+          <t>261752</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5185,12 +5185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>39,78%</t>
         </is>
       </c>
     </row>
@@ -5213,12 +5213,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>225105</t>
+          <t>222476</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>257179</t>
+          <t>255901</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>66,38%</t>
+          <t>65,6%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>75,84%</t>
+          <t>75,46%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>162674</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>191729</t>
+          <t>190196</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>51,01%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>59,64%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>397424</t>
+          <t>396272</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>439816</t>
+          <t>437037</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>60,4%</t>
+          <t>60,22%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>66,84%</t>
+          <t>66,42%</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>40351</t>
+          <t>40605</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61141</t>
+          <t>60621</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5458,12 +5458,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>234954</t>
+          <t>236057</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>413396</t>
+          <t>419360</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>51,91%</t>
+          <t>52,15%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>255407</t>
+          <t>255874</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>542943</t>
+          <t>553328</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>38,73%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>82,17%</t>
+          <t>83,75%</t>
         </is>
       </c>
     </row>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>146943</t>
+          <t>147463</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>167733</t>
+          <t>167479</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>70,62%</t>
+          <t>70,87%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>80,61%</t>
+          <t>80,49%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>39246</t>
+          <t>33282</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>217688</t>
+          <t>216585</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>47,85%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>117784</t>
+          <t>107399</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>405320</t>
+          <t>404853</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>61,34%</t>
+          <t>61,27%</t>
         </is>
       </c>
     </row>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>44270</t>
+          <t>44371</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>62545</t>
+          <t>63504</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5801,12 +5801,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>132721</t>
+          <t>132203</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>155169</t>
+          <t>154871</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>56,81%</t>
+          <t>56,59%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>66,42%</t>
+          <t>66,3%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>181791</t>
+          <t>181640</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>210849</t>
+          <t>212238</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>47,17%</t>
+          <t>47,13%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>54,71%</t>
+          <t>55,07%</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5899,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>89230</t>
+          <t>88271</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>107505</t>
+          <t>107404</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5914,12 +5914,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>58,79%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>70,83%</t>
+          <t>70,77%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5934,12 +5934,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>78435</t>
+          <t>78733</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>100883</t>
+          <t>101401</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>174530</t>
+          <t>173141</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>203588</t>
+          <t>203739</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5984,12 +5984,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>44,93%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>52,83%</t>
+          <t>52,87%</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>290336</t>
+          <t>296913</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>506337</t>
+          <t>508879</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>831191</t>
+          <t>832520</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1314217</t>
+          <t>1380392</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>58,9%</t>
+          <t>61,86%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6199,12 +6199,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>1199865</t>
+          <t>1199928</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1842263</t>
+          <t>1834914</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>42,34%</t>
         </is>
       </c>
     </row>
@@ -6242,12 +6242,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1596188</t>
+          <t>1593646</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1812189</t>
+          <t>1805612</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>75,8%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>917119</t>
+          <t>850944</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1400145</t>
+          <t>1398816</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>38,14%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>62,75%</t>
+          <t>62,69%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2491598</t>
+          <t>2498947</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3133996</t>
+          <t>3133933</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>57,49%</t>
+          <t>57,66%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
@@ -9702,12 +9702,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9589</t>
+          <t>9356</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19241</t>
+          <t>18552</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -9737,12 +9737,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14666</t>
+          <t>14834</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25001</t>
+          <t>24922</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -9772,12 +9772,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>26922</t>
+          <t>26750</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>40404</t>
+          <t>39518</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>31,31%</t>
         </is>
       </c>
     </row>
@@ -9815,12 +9815,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45432</t>
+          <t>46121</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55084</t>
+          <t>55317</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>70,25%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,17%</t>
+          <t>85,53%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -9850,12 +9850,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36539</t>
+          <t>36618</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46874</t>
+          <t>46706</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -9865,12 +9865,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>76,17%</t>
+          <t>75,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -9885,12 +9885,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>85810</t>
+          <t>86696</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>99292</t>
+          <t>99464</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>67,99%</t>
+          <t>68,69%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>78,81%</t>
         </is>
       </c>
     </row>
@@ -10045,12 +10045,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21144</t>
+          <t>20790</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35161</t>
+          <t>34537</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -10080,12 +10080,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31256</t>
+          <t>32079</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47220</t>
+          <t>47619</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -10095,12 +10095,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10115,12 +10115,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>56584</t>
+          <t>55938</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>76847</t>
+          <t>76552</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -10130,12 +10130,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>30,56%</t>
         </is>
       </c>
     </row>
@@ -10158,12 +10158,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87323</t>
+          <t>87947</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>101340</t>
+          <t>101694</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -10173,12 +10173,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>71,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,74%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>80811</t>
+          <t>80412</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>96775</t>
+          <t>95952</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>63,12%</t>
+          <t>62,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>74,94%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -10228,12 +10228,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>173668</t>
+          <t>173963</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>193931</t>
+          <t>194577</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>69,32%</t>
+          <t>69,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>77,41%</t>
+          <t>77,67%</t>
         </is>
       </c>
     </row>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26957</t>
+          <t>27356</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42035</t>
+          <t>42387</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -10423,12 +10423,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39081</t>
+          <t>38658</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>55440</t>
+          <t>55095</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -10438,12 +10438,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>42,06%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -10458,12 +10458,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>70544</t>
+          <t>70059</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>92745</t>
+          <t>92659</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>34,27%</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97332</t>
+          <t>96980</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>112410</t>
+          <t>112011</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>69,59%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,66%</t>
+          <t>80,37%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75542</t>
+          <t>75887</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91901</t>
+          <t>92324</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -10551,12 +10551,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>57,94%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>70,49%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -10571,12 +10571,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>177603</t>
+          <t>177689</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>199804</t>
+          <t>200289</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>65,69%</t>
+          <t>65,73%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>73,91%</t>
+          <t>74,09%</t>
         </is>
       </c>
     </row>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23272</t>
+          <t>23106</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36647</t>
+          <t>36971</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -10746,12 +10746,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -10766,12 +10766,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37224</t>
+          <t>36398</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>52816</t>
+          <t>53000</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -10781,12 +10781,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>44,34%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -10801,12 +10801,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>63018</t>
+          <t>61970</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>84560</t>
+          <t>84520</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -10816,12 +10816,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>35,63%</t>
         </is>
       </c>
     </row>
@@ -10844,12 +10844,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>81004</t>
+          <t>80680</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>94379</t>
+          <t>94545</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,85%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>80,22%</t>
+          <t>80,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10879,12 +10879,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>66716</t>
+          <t>66532</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>82308</t>
+          <t>83134</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -10894,12 +10894,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>55,81%</t>
+          <t>55,66%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>69,55%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -10914,12 +10914,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>152623</t>
+          <t>152663</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>174165</t>
+          <t>175213</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -10929,12 +10929,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>64,35%</t>
+          <t>64,37%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>73,43%</t>
+          <t>73,87%</t>
         </is>
       </c>
     </row>
@@ -11074,12 +11074,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22738</t>
+          <t>23367</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37743</t>
+          <t>38030</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>38,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31155</t>
+          <t>31131</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>45328</t>
+          <t>45231</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -11144,12 +11144,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>57061</t>
+          <t>57219</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>78679</t>
+          <t>78912</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -11159,12 +11159,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>36,9%</t>
         </is>
       </c>
     </row>
@@ -11187,12 +11187,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>60270</t>
+          <t>59983</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75275</t>
+          <t>74646</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11202,12 +11202,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>61,49%</t>
+          <t>61,2%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -11222,12 +11222,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>70532</t>
+          <t>70629</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>84705</t>
+          <t>84729</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -11237,12 +11237,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>60,96%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>73,11%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>135195</t>
+          <t>134962</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>156813</t>
+          <t>156655</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -11272,12 +11272,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>63,21%</t>
+          <t>63,1%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>73,32%</t>
+          <t>73,25%</t>
         </is>
       </c>
     </row>
@@ -11417,12 +11417,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23835</t>
+          <t>24723</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37047</t>
+          <t>37346</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>53,61%</t>
+          <t>54,04%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -11452,12 +11452,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30180</t>
+          <t>30480</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>44285</t>
+          <t>44141</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>50,24%</t>
+          <t>50,07%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -11487,12 +11487,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>58097</t>
+          <t>57453</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>77234</t>
+          <t>77401</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -11502,12 +11502,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>36,53%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>49,22%</t>
         </is>
       </c>
     </row>
@@ -11530,12 +11530,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>32055</t>
+          <t>31756</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45267</t>
+          <t>44379</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -11545,12 +11545,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>45,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>65,51%</t>
+          <t>64,22%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>43867</t>
+          <t>44011</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>57972</t>
+          <t>57672</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>65,76%</t>
+          <t>65,42%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -11600,12 +11600,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>80020</t>
+          <t>79853</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>99157</t>
+          <t>99801</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -11615,12 +11615,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>50,78%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>63,47%</t>
         </is>
       </c>
     </row>
@@ -11760,12 +11760,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19495</t>
+          <t>19765</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31050</t>
+          <t>30471</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>44,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>65501</t>
+          <t>64666</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>80228</t>
+          <t>79555</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>58,13%</t>
+          <t>57,39%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>70,6%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -11830,12 +11830,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>87516</t>
+          <t>88295</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>108285</t>
+          <t>106932</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -11845,12 +11845,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>48,63%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>59,64%</t>
+          <t>58,89%</t>
         </is>
       </c>
     </row>
@@ -11873,12 +11873,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>37849</t>
+          <t>38428</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>49404</t>
+          <t>49134</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -11888,12 +11888,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>55,77%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>71,7%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -11908,12 +11908,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>32450</t>
+          <t>33123</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>47177</t>
+          <t>48012</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -11923,12 +11923,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -11943,12 +11943,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>73291</t>
+          <t>74644</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>94060</t>
+          <t>93281</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -11958,12 +11958,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>51,8%</t>
+          <t>51,37%</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>173553</t>
+          <t>175371</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>210789</t>
+          <t>209455</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>277738</t>
+          <t>278529</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>316167</t>
+          <t>320514</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -12173,12 +12173,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>462011</t>
+          <t>462186</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>515684</t>
+          <t>515003</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -12188,12 +12188,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>32,16%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>35,89%</t>
+          <t>35,84%</t>
         </is>
       </c>
     </row>
@@ -12216,12 +12216,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>469401</t>
+          <t>470735</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>506637</t>
+          <t>504819</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>69,21%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>74,22%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>440607</t>
+          <t>436260</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>479036</t>
+          <t>478245</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>63,2%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>921281</t>
+          <t>921962</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>974954</t>
+          <t>974779</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -12301,12 +12301,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>64,11%</t>
+          <t>64,16%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>67,84%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_DOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DOL-Edad-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el dolor en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>29933</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>15291</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>49870</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4776</t>
+          <t>52618</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>35815</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6992</t>
+          <t>72010</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>7793</t>
+          <t>82550</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5487</t>
+          <t>62297</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10633</t>
+          <t>108506</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>23,54%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73864</t>
+          <t>211332</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71556</t>
+          <t>191395</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75181</t>
+          <t>225974</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>79,33%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61466</t>
+          <t>167037</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59250</t>
+          <t>147645</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>63010</t>
+          <t>183840</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>76,05%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,44%</t>
+          <t>67,22%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>83,69%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>174</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>135330</t>
+          <t>378370</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>132490</t>
+          <t>352414</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>137636</t>
+          <t>398623</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>82,09%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>86,48%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>56026</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>39617</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>76141</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5831</t>
+          <t>56692</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4136</t>
+          <t>43394</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8058</t>
+          <t>74802</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>8320</t>
+          <t>112718</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5957</t>
+          <t>90069</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>11266</t>
+          <t>139800</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>25,63%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>72494</t>
+          <t>205948</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70662</t>
+          <t>185833</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73615</t>
+          <t>222357</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>78,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>70,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>84,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>201</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62217</t>
+          <t>226761</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>59990</t>
+          <t>208651</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63912</t>
+          <t>240059</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>80,0%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>73,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>84,69%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>324</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>134711</t>
+          <t>432708</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>131765</t>
+          <t>405626</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>137074</t>
+          <t>455357</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>79,33%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>74,37%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>83,49%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9097</t>
+          <t>67805</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>52428</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12107</t>
+          <t>85941</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>165</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13848</t>
+          <t>122478</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10773</t>
+          <t>106786</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17096</t>
+          <t>139200</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>28,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>223</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>22945</t>
+          <t>190283</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>19289</t>
+          <t>167695</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>27618</t>
+          <t>213670</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>28,81%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94863</t>
+          <t>300513</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91853</t>
+          <t>282377</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97156</t>
+          <t>315890</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>81,59%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,35%</t>
+          <t>76,67%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>328</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96867</t>
+          <t>250907</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93619</t>
+          <t>234185</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>99942</t>
+          <t>266599</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>84,56%</t>
+          <t>62,72%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>71,4%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>583</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>191730</t>
+          <t>551420</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>187057</t>
+          <t>528033</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>195386</t>
+          <t>574008</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>74,35%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>87,14%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>77,39%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18078</t>
+          <t>102977</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14847</t>
+          <t>85109</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22155</t>
+          <t>120905</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25374</t>
+          <t>165135</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21676</t>
+          <t>149122</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>30043</t>
+          <t>182138</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>41,27%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>339</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>43452</t>
+          <t>268113</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>38447</t>
+          <t>241043</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>48892</t>
+          <t>293497</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>33,92%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>126700</t>
+          <t>320964</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>122623</t>
+          <t>303036</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>129931</t>
+          <t>338832</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>75,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>89,75%</t>
+          <t>79,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>414</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>127170</t>
+          <t>276157</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>122501</t>
+          <t>259154</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>130868</t>
+          <t>292170</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>83,37%</t>
+          <t>62,58%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,31%</t>
+          <t>58,73%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>66,21%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1372</t>
+          <t>711</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>253869</t>
+          <t>597121</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>248429</t>
+          <t>571737</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>258874</t>
+          <t>624191</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>85,39%</t>
+          <t>69,01%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>83,56%</t>
+          <t>66,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>72,14%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15673</t>
+          <t>107978</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12795</t>
+          <t>91450</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19623</t>
+          <t>125531</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>252</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26239</t>
+          <t>159621</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>22482</t>
+          <t>145815</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>30557</t>
+          <t>175779</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>366</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>41911</t>
+          <t>267598</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>37114</t>
+          <t>246467</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>47370</t>
+          <t>290967</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>33,84%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>39,95%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>113909</t>
+          <t>260065</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>109959</t>
+          <t>242512</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>116787</t>
+          <t>276593</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>87,91%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>65,89%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,13%</t>
+          <t>75,15%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>314</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>125676</t>
+          <t>200745</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>121358</t>
+          <t>184587</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>129433</t>
+          <t>214551</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>82,73%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>79,89%</t>
+          <t>51,22%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>85,2%</t>
+          <t>59,54%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>598</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>239587</t>
+          <t>460810</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>234128</t>
+          <t>437441</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>244384</t>
+          <t>481941</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>86,82%</t>
+          <t>66,16%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11491</t>
+          <t>53320</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8861</t>
+          <t>43404</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14400</t>
+          <t>65341</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>259</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25178</t>
+          <t>144804</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>21788</t>
+          <t>132627</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>29383</t>
+          <t>156650</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>53,62%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>58,01%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>335</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>36669</t>
+          <t>198123</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>31980</t>
+          <t>180655</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>41646</t>
+          <t>216199</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>39,52%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>43,13%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>92975</t>
+          <t>177953</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>90066</t>
+          <t>165932</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>95605</t>
+          <t>187869</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>76,95%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,22%</t>
+          <t>71,75%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>223</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>90602</t>
+          <t>125228</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>86397</t>
+          <t>113382</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>93992</t>
+          <t>137405</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>46,38%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>74,62%</t>
+          <t>41,99%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>81,18%</t>
+          <t>50,88%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>464</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>183577</t>
+          <t>303181</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>178600</t>
+          <t>285105</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>188266</t>
+          <t>320649</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>83,35%</t>
+          <t>60,48%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>81,09%</t>
+          <t>56,87%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>85,48%</t>
+          <t>63,96%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>18883</t>
+          <t>58757</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>15860</t>
+          <t>48584</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22386</t>
+          <t>69384</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>35,49%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>275</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>42613</t>
+          <t>157653</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>38243</t>
+          <t>144994</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>47225</t>
+          <t>169769</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>61,44%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>56,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>66,16%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>360</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>61496</t>
+          <t>216410</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>55958</t>
+          <t>199601</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>66975</t>
+          <t>233415</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>47,28%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>55,29%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>70340</t>
+          <t>106824</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>66837</t>
+          <t>96197</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>73363</t>
+          <t>116997</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>78,84%</t>
+          <t>64,51%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>74,91%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>82,22%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>166</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>89699</t>
+          <t>98954</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>85087</t>
+          <t>86838</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>94069</t>
+          <t>111613</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>67,79%</t>
+          <t>38,56%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>64,31%</t>
+          <t>33,84%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>71,1%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>312</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>160039</t>
+          <t>205778</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>154560</t>
+          <t>188773</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>165577</t>
+          <t>222587</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>72,24%</t>
+          <t>48,74%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>69,77%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>74,74%</t>
+          <t>52,72%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3132,107 +3132,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>467</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>78728</t>
+          <t>476795</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>71343</t>
+          <t>431484</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>86576</t>
+          <t>520177</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>143858</t>
+          <t>859000</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>134320</t>
+          <t>821865</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>152300</t>
+          <t>905400</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>38,96%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>1739</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>222586</t>
+          <t>1335796</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>211450</t>
+          <t>1276113</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>235242</t>
+          <t>1394111</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>32,69%</t>
         </is>
       </c>
     </row>
@@ -3245,107 +3245,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3628</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>645144</t>
+          <t>1583600</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>637296</t>
+          <t>1540218</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>652529</t>
+          <t>1628911</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>89,12%</t>
+          <t>76,86%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>88,04%</t>
+          <t>74,75%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>3646</t>
+          <t>1737</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>653698</t>
+          <t>1345790</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>645256</t>
+          <t>1299390</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>663236</t>
+          <t>1382925</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>61,04%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>80,9%</t>
+          <t>58,93%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>83,16%</t>
+          <t>62,72%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7274</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1298843</t>
+          <t>2929389</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1286187</t>
+          <t>2871074</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1309979</t>
+          <t>2989072</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>85,37%</t>
+          <t>68,68%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>84,54%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>86,1%</t>
+          <t>70,08%</t>
         </is>
       </c>
     </row>
@@ -3358,22 +3358,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3428,22 +3428,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4905</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el dolor en Barcelona (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3718,107 +3718,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29283</t>
+          <t>13853</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14180</t>
+          <t>9356</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>54470</t>
+          <t>18552</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43045</t>
+          <t>19658</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28496</t>
+          <t>14834</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>59961</t>
+          <t>24922</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>40,5%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>72328</t>
+          <t>33511</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>51164</t>
+          <t>26750</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>99958</t>
+          <t>39518</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>31,31%</t>
         </is>
       </c>
     </row>
@@ -3831,107 +3831,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>206953</t>
+          <t>50820</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>181766</t>
+          <t>46121</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>222056</t>
+          <t>55317</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,6%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>85,53%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>141308</t>
+          <t>41882</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>124392</t>
+          <t>36618</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>155857</t>
+          <t>46706</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,65%</t>
+          <t>68,06%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>67,47%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>84,54%</t>
+          <t>75,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>236</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>348261</t>
+          <t>92703</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>320631</t>
+          <t>86696</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>369425</t>
+          <t>99464</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>73,45%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>76,23%</t>
+          <t>68,69%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,84%</t>
+          <t>78,81%</t>
         </is>
       </c>
     </row>
@@ -3944,22 +3944,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3979,22 +3979,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4014,22 +4014,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4061,107 +4061,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50724</t>
+          <t>27191</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34815</t>
+          <t>20790</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67745</t>
+          <t>34537</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53271</t>
+          <t>39099</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23841</t>
+          <t>32079</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>76745</t>
+          <t>47619</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>151</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>103995</t>
+          <t>66290</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>65464</t>
+          <t>55938</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>133382</t>
+          <t>76552</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>30,56%</t>
         </is>
       </c>
     </row>
@@ -4174,107 +4174,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>178644</t>
+          <t>95293</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>161623</t>
+          <t>87947</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>194553</t>
+          <t>101694</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>77,89%</t>
+          <t>77,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,46%</t>
+          <t>71,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>191</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>261157</t>
+          <t>88932</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>237683</t>
+          <t>80412</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>290587</t>
+          <t>95952</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>83,06%</t>
+          <t>69,46%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>62,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>74,94%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>405</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>439801</t>
+          <t>184225</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>410414</t>
+          <t>173963</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>478332</t>
+          <t>194577</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>80,88%</t>
+          <t>73,54%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>69,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>87,96%</t>
+          <t>77,67%</t>
         </is>
       </c>
     </row>
@@ -4287,22 +4287,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>122484</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>122484</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>122484</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4322,22 +4322,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4357,22 +4357,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>556</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>250515</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>250515</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>250515</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4404,107 +4404,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60177</t>
+          <t>34441</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45471</t>
+          <t>27356</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>76834</t>
+          <t>42387</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>108535</t>
+          <t>46602</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>94648</t>
+          <t>38658</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>123545</t>
+          <t>55095</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>42,06%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>189</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>168712</t>
+          <t>81042</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>148995</t>
+          <t>70059</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>189529</t>
+          <t>92659</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>34,27%</t>
         </is>
       </c>
     </row>
@@ -4517,107 +4517,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>250592</t>
+          <t>104926</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>233935</t>
+          <t>96980</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>265298</t>
+          <t>112011</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,64%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,28%</t>
+          <t>69,59%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,37%</t>
+          <t>80,37%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>208</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>214078</t>
+          <t>84380</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>199068</t>
+          <t>75887</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>227965</t>
+          <t>92324</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>66,36%</t>
+          <t>64,42%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>57,94%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>70,49%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>443</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>464669</t>
+          <t>189306</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>443852</t>
+          <t>177689</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>484386</t>
+          <t>200289</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>73,36%</t>
+          <t>70,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>70,08%</t>
+          <t>65,73%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>76,48%</t>
+          <t>74,09%</t>
         </is>
       </c>
     </row>
@@ -4630,22 +4630,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130982</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130982</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130982</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4700,22 +4700,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>632</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270348</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270348</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270348</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4747,107 +4747,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94477</t>
+          <t>29426</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35246</t>
+          <t>23106</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>164149</t>
+          <t>36971</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>155477</t>
+          <t>44117</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>139677</t>
+          <t>36398</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>174603</t>
+          <t>53000</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>44,34%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>169</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>249954</t>
+          <t>73543</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>123994</t>
+          <t>61970</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>334053</t>
+          <t>84520</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>35,63%</t>
         </is>
       </c>
     </row>
@@ -4860,107 +4860,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>532687</t>
+          <t>88225</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>463015</t>
+          <t>80680</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>591918</t>
+          <t>94545</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>84,94%</t>
+          <t>74,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>73,83%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>80,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>194</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>249325</t>
+          <t>75415</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>230199</t>
+          <t>66532</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>265125</t>
+          <t>83134</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>61,59%</t>
+          <t>63,09%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>55,66%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>65,5%</t>
+          <t>69,55%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>413</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>782012</t>
+          <t>163640</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>697913</t>
+          <t>152663</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>907972</t>
+          <t>175213</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>68,99%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>67,63%</t>
+          <t>64,37%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>73,87%</t>
         </is>
       </c>
     </row>
@@ -4973,22 +4973,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5008,22 +5008,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5043,22 +5043,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5090,107 +5090,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>98880</t>
+          <t>29626</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>83228</t>
+          <t>23367</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>116653</t>
+          <t>38030</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>30,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>38,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>141520</t>
+          <t>37958</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>128698</t>
+          <t>31131</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>156220</t>
+          <t>45231</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>157</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>240401</t>
+          <t>67585</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>220987</t>
+          <t>57219</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>261752</t>
+          <t>78912</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>36,9%</t>
         </is>
       </c>
     </row>
@@ -5203,107 +5203,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>240249</t>
+          <t>68387</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>222476</t>
+          <t>59983</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>255901</t>
+          <t>74646</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>70,84%</t>
+          <t>69,77%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>65,6%</t>
+          <t>61,2%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>75,46%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>177374</t>
+          <t>77902</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>162674</t>
+          <t>70629</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>190196</t>
+          <t>84729</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>67,24%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>51,01%</t>
+          <t>60,96%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>59,64%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>350</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>417623</t>
+          <t>146289</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>396272</t>
+          <t>134962</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>437037</t>
+          <t>156655</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>63,47%</t>
+          <t>68,4%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>60,22%</t>
+          <t>63,1%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>66,42%</t>
+          <t>73,25%</t>
         </is>
       </c>
     </row>
@@ -5316,22 +5316,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5351,22 +5351,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5386,22 +5386,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5433,107 +5433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>49823</t>
+          <t>30617</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>40605</t>
+          <t>24723</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>60621</t>
+          <t>37346</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>44,31%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>54,04%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>337141</t>
+          <t>37163</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>236057</t>
+          <t>30480</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>419360</t>
+          <t>44141</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>50,07%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>157</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>386964</t>
+          <t>67780</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>255874</t>
+          <t>57453</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>553328</t>
+          <t>77401</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>58,57%</t>
+          <t>43,1%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>36,53%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>49,22%</t>
         </is>
       </c>
     </row>
@@ -5546,107 +5546,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>158261</t>
+          <t>38485</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>147463</t>
+          <t>31756</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>167479</t>
+          <t>44379</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>76,06%</t>
+          <t>55,69%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>70,87%</t>
+          <t>45,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>80,49%</t>
+          <t>64,22%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>115501</t>
+          <t>50989</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>33282</t>
+          <t>44011</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>216585</t>
+          <t>57672</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>65,42%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>249</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>273763</t>
+          <t>89474</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>107399</t>
+          <t>79853</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>404853</t>
+          <t>99801</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>56,9%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>50,78%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>61,27%</t>
+          <t>63,47%</t>
         </is>
       </c>
     </row>
@@ -5659,22 +5659,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5694,22 +5694,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>227</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88152</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88152</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88152</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5729,22 +5729,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>406</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157254</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157254</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157254</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5776,107 +5776,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>53477</t>
+          <t>25178</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>44371</t>
+          <t>19765</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>63504</t>
+          <t>30471</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>44,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>143799</t>
+          <t>72981</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>132203</t>
+          <t>64666</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>154871</t>
+          <t>79555</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>61,56%</t>
+          <t>64,77%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>56,59%</t>
+          <t>57,39%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>66,3%</t>
+          <t>70,6%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>255</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>197276</t>
+          <t>98158</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>181640</t>
+          <t>88295</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>212238</t>
+          <t>106932</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>51,19%</t>
+          <t>54,06%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>48,63%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>58,89%</t>
         </is>
       </c>
     </row>
@@ -5889,107 +5889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>98298</t>
+          <t>43721</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>88271</t>
+          <t>38428</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>107404</t>
+          <t>49134</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>64,77%</t>
+          <t>63,46%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>55,77%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>70,77%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>127</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>89805</t>
+          <t>39697</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>78733</t>
+          <t>33123</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>101401</t>
+          <t>48012</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>243</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>188103</t>
+          <t>83418</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>173141</t>
+          <t>74644</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>203739</t>
+          <t>93281</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>45,94%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>51,37%</t>
         </is>
       </c>
     </row>
@@ -6002,22 +6002,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>68899</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>68899</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>68899</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6037,22 +6037,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>306</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>112678</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>112678</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>112678</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6072,22 +6072,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>498</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>181576</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>181576</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>181576</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6119,107 +6119,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>436841</t>
+          <t>190331</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>296913</t>
+          <t>175371</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>508879</t>
+          <t>209455</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>722</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>982788</t>
+          <t>297577</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>832520</t>
+          <t>278529</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1380392</t>
+          <t>320514</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>44,04%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>61,86%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1739</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>1419629</t>
+          <t>487909</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>1199928</t>
+          <t>462186</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1834914</t>
+          <t>515003</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>32,16%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>35,84%</t>
         </is>
       </c>
     </row>
@@ -6232,107 +6232,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1665684</t>
+          <t>489859</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1593646</t>
+          <t>470735</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1805612</t>
+          <t>504819</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>79,22%</t>
+          <t>72,02%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>75,8%</t>
+          <t>69,21%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>74,22%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1737</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1248548</t>
+          <t>459197</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>850944</t>
+          <t>436260</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1398816</t>
+          <t>478245</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>60,68%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>62,69%</t>
+          <t>63,2%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3166</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2914232</t>
+          <t>949056</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2498947</t>
+          <t>921962</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3133933</t>
+          <t>974779</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>57,66%</t>
+          <t>64,16%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>72,31%</t>
+          <t>67,84%</t>
         </is>
       </c>
     </row>
@@ -6345,22 +6345,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>680190</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>680190</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>680190</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6380,22 +6380,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>756774</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>756774</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>756774</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6415,22 +6415,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4905</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>1436965</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>1436965</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>1436965</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el dolor en Barcelona (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el dolor en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9692,107 +9692,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13853</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9356</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18552</t>
+          <t>5325</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19658</t>
+          <t>4776</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14834</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24922</t>
+          <t>6992</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>33511</t>
+          <t>7793</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>26750</t>
+          <t>5487</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>39518</t>
+          <t>10633</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -9805,107 +9805,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>363</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50820</t>
+          <t>73864</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46121</t>
+          <t>71556</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55317</t>
+          <t>75181</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>78,58%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,31%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>320</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41882</t>
+          <t>61466</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36618</t>
+          <t>59250</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46706</t>
+          <t>63010</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>68,06%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>59,5%</t>
+          <t>89,44%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>75,89%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>683</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>92703</t>
+          <t>135330</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>86696</t>
+          <t>132490</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>99464</t>
+          <t>137636</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>68,69%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>96,17%</t>
         </is>
       </c>
     </row>
@@ -9918,22 +9918,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -9953,22 +9953,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -9988,22 +9988,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -10035,107 +10035,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27191</t>
+          <t>2489</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20790</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34537</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39099</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32079</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47619</t>
+          <t>8058</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>66290</t>
+          <t>8320</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>55938</t>
+          <t>5957</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>76552</t>
+          <t>11266</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -10148,107 +10148,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>95293</t>
+          <t>72494</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87947</t>
+          <t>70662</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>101694</t>
+          <t>73615</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,8%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>83,03%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>334</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>88932</t>
+          <t>62217</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>80412</t>
+          <t>59990</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>95952</t>
+          <t>63912</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>69,46%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>62,81%</t>
+          <t>88,16%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>74,94%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>718</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>184225</t>
+          <t>134711</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>173963</t>
+          <t>131765</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>194577</t>
+          <t>137074</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>69,44%</t>
+          <t>92,12%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>77,67%</t>
+          <t>95,84%</t>
         </is>
       </c>
     </row>
@@ -10261,22 +10261,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>122484</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>122484</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>122484</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -10296,22 +10296,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -10331,22 +10331,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>250515</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>250515</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>250515</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -10378,107 +10378,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34441</t>
+          <t>9097</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27356</t>
+          <t>6804</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42387</t>
+          <t>12107</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46602</t>
+          <t>13848</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38658</t>
+          <t>10773</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>55095</t>
+          <t>17096</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>120</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>81042</t>
+          <t>22945</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>70059</t>
+          <t>19289</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>92659</t>
+          <t>27618</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>12,86%</t>
         </is>
       </c>
     </row>
@@ -10491,107 +10491,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>521</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>104926</t>
+          <t>94863</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96980</t>
+          <t>91853</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>112011</t>
+          <t>97156</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>75,29%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,59%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,37%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>507</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84380</t>
+          <t>96867</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75887</t>
+          <t>93619</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92324</t>
+          <t>99942</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>64,42%</t>
+          <t>87,49%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>84,56%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>70,49%</t>
+          <t>90,27%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>189306</t>
+          <t>191730</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>177689</t>
+          <t>187057</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>200289</t>
+          <t>195386</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>70,02%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>65,73%</t>
+          <t>87,14%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>74,09%</t>
+          <t>91,01%</t>
         </is>
       </c>
     </row>
@@ -10604,22 +10604,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -10639,22 +10639,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>130982</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>130982</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>130982</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>270348</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>270348</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>270348</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -10721,107 +10721,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29426</t>
+          <t>18078</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23106</t>
+          <t>14847</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36971</t>
+          <t>22155</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44117</t>
+          <t>25374</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36398</t>
+          <t>21676</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53000</t>
+          <t>30043</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>243</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>73543</t>
+          <t>43452</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>61970</t>
+          <t>38447</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>84520</t>
+          <t>48892</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>16,44%</t>
         </is>
       </c>
     </row>
@@ -10834,107 +10834,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>706</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>88225</t>
+          <t>126700</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>80680</t>
+          <t>122623</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>94545</t>
+          <t>129931</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>74,99%</t>
+          <t>87,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,58%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>75415</t>
+          <t>127170</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>66532</t>
+          <t>122501</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>83134</t>
+          <t>130868</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>63,09%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>55,66%</t>
+          <t>80,31%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>69,55%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>163640</t>
+          <t>253869</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>152663</t>
+          <t>248429</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>175213</t>
+          <t>258874</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>68,99%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>64,37%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>73,87%</t>
+          <t>87,07%</t>
         </is>
       </c>
     </row>
@@ -10947,22 +10947,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -10982,22 +10982,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -11017,22 +11017,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -11064,107 +11064,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29626</t>
+          <t>15673</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23367</t>
+          <t>12795</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38030</t>
+          <t>19623</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>149</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>37958</t>
+          <t>26239</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31131</t>
+          <t>22482</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>45231</t>
+          <t>30557</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>242</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>67585</t>
+          <t>41911</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>57219</t>
+          <t>37114</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>78912</t>
+          <t>47370</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>16,83%</t>
         </is>
       </c>
     </row>
@@ -11177,107 +11177,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>640</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>68387</t>
+          <t>113909</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59983</t>
+          <t>109959</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74646</t>
+          <t>116787</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>69,77%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>61,2%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>710</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>77902</t>
+          <t>125676</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>70629</t>
+          <t>121358</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>84729</t>
+          <t>129433</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>82,73%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>79,89%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>73,13%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>146289</t>
+          <t>239587</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>134962</t>
+          <t>234128</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>156655</t>
+          <t>244384</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>68,4%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>63,1%</t>
+          <t>83,17%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>73,25%</t>
+          <t>86,82%</t>
         </is>
       </c>
     </row>
@@ -11290,22 +11290,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -11325,22 +11325,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -11360,22 +11360,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -11407,107 +11407,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30617</t>
+          <t>11491</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24723</t>
+          <t>8861</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37346</t>
+          <t>14400</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>44,31%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>54,04%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37163</t>
+          <t>25178</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30480</t>
+          <t>21788</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>44141</t>
+          <t>29383</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>50,07%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>216</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>67780</t>
+          <t>36669</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>57453</t>
+          <t>31980</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>77401</t>
+          <t>41646</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>49,22%</t>
+          <t>18,91%</t>
         </is>
       </c>
     </row>
@@ -11520,107 +11520,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>577</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>38485</t>
+          <t>92975</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>31756</t>
+          <t>90066</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>44379</t>
+          <t>95605</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>89,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>45,96%</t>
+          <t>86,22%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>64,22%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>556</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>50989</t>
+          <t>90602</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>44011</t>
+          <t>86397</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>57672</t>
+          <t>93992</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>57,84%</t>
+          <t>78,25%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>74,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>65,42%</t>
+          <t>81,18%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>89474</t>
+          <t>183577</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>79853</t>
+          <t>178600</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>99801</t>
+          <t>188266</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>56,9%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>50,78%</t>
+          <t>81,09%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>63,47%</t>
+          <t>85,48%</t>
         </is>
       </c>
     </row>
@@ -11633,22 +11633,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -11668,22 +11668,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>88152</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>88152</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>88152</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -11703,22 +11703,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>157254</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>157254</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>157254</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -11750,107 +11750,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>25178</t>
+          <t>18883</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19765</t>
+          <t>15860</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30471</t>
+          <t>22386</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>72981</t>
+          <t>42613</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>64666</t>
+          <t>38243</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>79555</t>
+          <t>47225</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>64,77%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>57,39%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>70,6%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>371</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>98158</t>
+          <t>61496</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>88295</t>
+          <t>55958</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>106932</t>
+          <t>66975</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>54,06%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>58,89%</t>
+          <t>30,23%</t>
         </is>
       </c>
     </row>
@@ -11863,107 +11863,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>437</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>43721</t>
+          <t>70340</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>38428</t>
+          <t>66837</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>49134</t>
+          <t>73363</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>78,84%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>55,77%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>71,31%</t>
+          <t>82,22%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>553</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>39697</t>
+          <t>89699</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>33123</t>
+          <t>85087</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>48012</t>
+          <t>94069</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>67,79%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>29,4%</t>
+          <t>64,31%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>71,1%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>990</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>83418</t>
+          <t>160039</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>74644</t>
+          <t>154560</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>93281</t>
+          <t>165577</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>72,24%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>41,11%</t>
+          <t>69,77%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>74,74%</t>
         </is>
       </c>
     </row>
@@ -11976,22 +11976,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>68899</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>68899</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>68899</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -12011,22 +12011,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>112678</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>112678</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>112678</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -12046,22 +12046,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>181576</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>181576</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>181576</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -12093,107 +12093,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>190331</t>
+          <t>78728</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>175371</t>
+          <t>71343</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>209455</t>
+          <t>86576</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>829</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>297577</t>
+          <t>143858</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>278529</t>
+          <t>134320</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>320514</t>
+          <t>152300</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>487909</t>
+          <t>222586</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>462186</t>
+          <t>211450</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>515003</t>
+          <t>235242</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>15,46%</t>
         </is>
       </c>
     </row>
@@ -12206,107 +12206,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>489859</t>
+          <t>645144</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>470735</t>
+          <t>637296</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>504819</t>
+          <t>652529</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>72,02%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>69,21%</t>
+          <t>88,04%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>74,22%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>3646</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>459197</t>
+          <t>653698</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>436260</t>
+          <t>645256</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>478245</t>
+          <t>663236</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>60,68%</t>
+          <t>81,96%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>80,9%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>63,2%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>2339</t>
+          <t>7274</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>949056</t>
+          <t>1298843</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>921962</t>
+          <t>1286187</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>974779</t>
+          <t>1309979</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>64,16%</t>
+          <t>84,54%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>67,84%</t>
+          <t>86,1%</t>
         </is>
       </c>
     </row>
@@ -12319,22 +12319,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>680190</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>680190</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>680190</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756774</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756774</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756774</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -12389,22 +12389,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3503</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1436965</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1436965</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1436965</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
